--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-10.59722680190681</v>
+        <v>-10.59722680181188</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.77400099413534</v>
+        <v>22.77400099413489</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.26299069368053</v>
+        <v>31.26299069371384</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9281772214184159</v>
+        <v>0.9281772214466102</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.60826575503676</v>
+        <v>15.60826575507587</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.33436651493366</v>
+        <v>21.33436651491194</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.01235655655773</v>
+        <v>14.01235655658865</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.63760532466176</v>
+        <v>21.63760532466539</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.88139072504145</v>
+        <v>25.88139072507965</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.29403402733657</v>
+        <v>28.29403402727745</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.08361602540185</v>
+        <v>36.08361602543368</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.37696829083654</v>
+        <v>40.37696829084927</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.675032771971011</v>
+        <v>9.675032771956459</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.74117841280633</v>
+        <v>29.74117841279178</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.25356711351048</v>
+        <v>37.25356711352139</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-4.944074350269382</v>
+        <v>-4.944074350276431</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.43193204761894</v>
+        <v>28.43193204767726</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.92389443685385</v>
+        <v>36.92389443686408</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.578153732033677</v>
+        <v>6.578153732053913</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.26245888638208</v>
+        <v>21.26245888638027</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.99107367200565</v>
+        <v>26.99107367200087</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.6665736581109</v>
+        <v>19.6665736580918</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.2953253112812</v>
+        <v>27.29532531131758</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-3.409322043287496</v>
+        <v>-3.40932204321701</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.96260380637761</v>
+        <v>29.96260380637499</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>38.45159758420458</v>
+        <v>38.45159758430656</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.117344029012877</v>
+        <v>8.117344029030839</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.7979522907517</v>
+        <v>22.79795229070259</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.52402355295794</v>
+        <v>28.52402355298454</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.20195514371175</v>
+        <v>21.20195514377564</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.82761531117261</v>
+        <v>28.82761531113635</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.07136592266101</v>
+        <v>33.07136592262474</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35.48439409437457</v>
+        <v>35.48439409436457</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>43.27410896976868</v>
+        <v>43.27410896975322</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.56745615392878</v>
+        <v>47.56745615390877</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.86481238633473</v>
+        <v>16.86481238627925</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.93160000835552</v>
+        <v>36.93160000832642</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>44.4439413986887</v>
+        <v>44.44394139860866</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.24549971913779</v>
+        <v>2.245499719098</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>35.62220424875544</v>
+        <v>35.62220424878284</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.11417075037638</v>
+        <v>44.11417075040196</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.76898999913498</v>
+        <v>13.76898999917147</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.4538149515954</v>
+        <v>28.45381495161916</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.18240026610385</v>
+        <v>34.18240026610021</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.48700492702459</v>
+        <v>34.48700492696263</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2751587307171732</v>
+        <v>0.2751587308010741</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>33.64720219573325</v>
+        <v>33.64720219578907</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.13620416544313</v>
+        <v>42.13620416546984</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.80239861990218</v>
+        <v>11.80239861990105</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.48316172465956</v>
+        <v>26.48316172466308</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.20924494705775</v>
+        <v>32.20924494710129</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.88706963156584</v>
+        <v>24.88706963159586</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.51287848767003</v>
+        <v>32.51287848769913</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.75664158352378</v>
+        <v>36.7566415835447</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>39.16967178168635</v>
+        <v>39.1696717817382</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>46.95939576942521</v>
+        <v>46.95939576934426</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.25275400325199</v>
+        <v>51.25275400330019</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>20.54994244874887</v>
+        <v>20.54994244877798</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.61691293568548</v>
+        <v>40.61691293574915</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.12925688229472</v>
+        <v>48.12925688226471</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.930613576713647</v>
+        <v>5.930613576738089</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>39.30743573147435</v>
+        <v>39.30743573148981</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.7994104244849</v>
+        <v>47.79941042441862</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.45467774488542</v>
+        <v>17.45467774485098</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>32.13965755139633</v>
+        <v>32.13965755145284</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.86825482460403</v>
+        <v>37.8682548244958</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.54358947188165</v>
+        <v>30.54358947181071</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.17290128256467</v>
+        <v>38.17290128258275</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-6.707468521579365</v>
+        <v>-6.707468521571862</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.66411427101638</v>
+        <v>26.66411427101342</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.15321061256963</v>
+        <v>35.15321061261351</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.818900466983102</v>
+        <v>4.818900467013911</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.49932334662753</v>
+        <v>19.49932334660843</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.22552911659533</v>
+        <v>25.22552911660454</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.90312488777828</v>
+        <v>17.90312488779124</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.52866441611092</v>
+        <v>25.52866441619766</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.77254357111701</v>
+        <v>29.77254357121102</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.18515267428983</v>
+        <v>32.18515267441443</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.9747850313156</v>
+        <v>39.9747850312965</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.26822248364396</v>
+        <v>44.26822248367761</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13.56582361859272</v>
+        <v>13.56582361862183</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.63238896414372</v>
+        <v>33.63238896413554</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.14488245103802</v>
+        <v>41.14488245100528</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1.053478112165301</v>
+        <v>-1.053478112133469</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.32288331650317</v>
+        <v>32.32288331652727</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>40.81495236736293</v>
+        <v>40.81495236737759</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.46971501222855</v>
+        <v>10.46971501224163</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.15435455210524</v>
+        <v>25.15435455207352</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.88307435954959</v>
+        <v>30.88307435949866</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>23.55818005640628</v>
+        <v>23.55818005639559</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.18722250648704</v>
+        <v>31.18722250649011</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.54126001195652</v>
+        <v>31.54126001193833</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.95511365768493</v>
+        <v>33.95511365767947</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>41.74729009648114</v>
+        <v>41.74729009646307</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.04201431162038</v>
+        <v>46.04201431160049</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15.33356650068014</v>
+        <v>15.33356650070379</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>35.40584970188637</v>
+        <v>35.4058497018891</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.92036224840523</v>
+        <v>42.92036224839614</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4.833919608728472</v>
+        <v>4.833919608763033</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.21130593743691</v>
+        <v>38.21130593744873</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>46.70348828833777</v>
+        <v>46.7034882883596</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16.35965102415968</v>
+        <v>16.35965102419049</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.04539965718913</v>
+        <v>31.04539965716594</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.77420749248164</v>
+        <v>36.77420749248176</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.44981415200174</v>
+        <v>29.44981415197594</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.07987279435996</v>
+        <v>37.07987279439987</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.325964894207</v>
+        <v>41.32596489421837</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.74253445709882</v>
+        <v>43.74253445706221</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>51.53544609936682</v>
+        <v>51.5354460993376</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.83033473248189</v>
+        <v>55.83033473242312</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.11912653357216</v>
+        <v>25.11912653362594</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.19305287846054</v>
+        <v>45.19305287847691</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.70784702170362</v>
+        <v>52.70784702170351</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>38.73290486067298</v>
+        <v>38.7329048605801</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.14714332687083</v>
+        <v>41.14714332687276</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.93945266216883</v>
+        <v>48.9394526621719</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.23417179374962</v>
+        <v>53.23417179367322</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.5250156831247</v>
+        <v>22.52501568310571</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.59794095822269</v>
+        <v>42.59794095817096</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.11240621740716</v>
+        <v>50.11240621733258</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.02430744689297</v>
+        <v>12.02430744686375</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>45.40239191816669</v>
+        <v>45.40239191812474</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53.89457836821179</v>
+        <v>53.89457836813539</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>23.55130116474356</v>
+        <v>23.55130116479415</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.23756960336856</v>
+        <v>38.2375696033456</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.96634795951092</v>
+        <v>43.96634795950876</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.64189620774538</v>
+        <v>36.64189620768718</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.27236631414745</v>
+        <v>44.27236631406742</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.51842364106391</v>
+        <v>48.51842364103117</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.93537804978893</v>
+        <v>50.93537804973334</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>58.72842259006722</v>
+        <v>58.72842259005619</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.02330614061588</v>
+        <v>63.02330614051765</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.31138962310626</v>
+        <v>32.31138962309887</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.38595804662679</v>
+        <v>52.38595804657574</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>59.90070489600088</v>
+        <v>59.90070489601248</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.41881369913062</v>
+        <v>42.41881369908321</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>44.83305413654443</v>
+        <v>44.83305413649168</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>52.62537257722169</v>
+        <v>52.62537257714074</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>56.92010275470715</v>
+        <v>56.92010275468987</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.21077887570379</v>
+        <v>26.21077887577666</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>46.28388702475853</v>
+        <v>46.28388702476308</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.70989386977896</v>
+        <v>15.70989386978066</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.08809597014305</v>
+        <v>49.08809597013396</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>57.58029060134356</v>
+        <v>57.58029060132548</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.23746149797682</v>
+        <v>27.23746149794396</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.92388479360374</v>
+        <v>41.92388479360192</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.65267510175078</v>
+        <v>47.65267510171633</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.32811646402103</v>
+        <v>40.3281164639992</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>47.95873527246703</v>
+        <v>47.95873527253331</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>52.20480507690115</v>
+        <v>52.20480507693104</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>54.62176144890099</v>
+        <v>54.62176144878173</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>62.41481509351296</v>
+        <v>62.41481509348386</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>66.70970968822439</v>
+        <v>66.70970968815175</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.99762539226025</v>
+        <v>35.99762539230004</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>56.07237669054779</v>
+        <v>56.07237669059838</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>63.58712608902146</v>
+        <v>63.58712608904658</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.43325096993566</v>
+        <v>35.43325096993237</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.84707032439371</v>
+        <v>37.84707032426558</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.63929712252126</v>
+        <v>45.63929712249466</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>49.93410653213481</v>
+        <v>49.93410653207149</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.22519537960977</v>
+        <v>19.22519537970071</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.29789833132883</v>
+        <v>39.29789833140352</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>46.81251567692743</v>
+        <v>46.81251567695301</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>8.725443729420697</v>
+        <v>8.725443729428882</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42.10318510832575</v>
+        <v>42.10318510832166</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>50.59547410368736</v>
+        <v>50.59547410371646</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>20.25214024476895</v>
+        <v>20.25214024476349</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.93822328260807</v>
+        <v>34.93822328259807</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.66713612919806</v>
+        <v>40.66713612918533</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.34234852705878</v>
+        <v>33.34234852702786</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.97269798349225</v>
+        <v>40.97269798347315</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>45.21888383845918</v>
+        <v>45.21888383837915</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.63541910988635</v>
+        <v>47.63541910985543</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.42838111589491</v>
+        <v>55.42838111585581</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.72335493891659</v>
+        <v>59.72335493888749</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.01168335349916</v>
+        <v>29.01168335353554</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.08602946695566</v>
+        <v>49.08602946693747</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.60092839751211</v>
+        <v>56.60092839750302</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.399333802328321</v>
+        <v>1.39933380236311</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>34.7706995412717</v>
+        <v>34.77069954132536</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>43.25900557117381</v>
+        <v>43.25900557115084</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>12.92414253243293</v>
+        <v>12.92414253249853</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.60499111369483</v>
+        <v>27.60499111373371</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.33050489501033</v>
+        <v>33.33050489503182</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.00924019830972</v>
+        <v>26.00924019835679</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>33.63536144597992</v>
+        <v>33.63536144595434</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.87865252443589</v>
+        <v>37.8786525244244</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.29092453136104</v>
+        <v>40.29092453136388</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.08056470537598</v>
+        <v>48.08056470536871</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>52.37350722302858</v>
+        <v>52.37350722302846</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.67104201383051</v>
+        <v>21.67104201386336</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>41.73776277778801</v>
+        <v>41.73776277775698</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>49.24947295192725</v>
+        <v>49.24947295189497</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.051441087799041</v>
+        <v>7.051441087819278</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.42758531569688</v>
+        <v>40.42758531571064</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>48.91886381997346</v>
+        <v>48.91886381995811</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>18.57307373099751</v>
+        <v>18.57307373096238</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.25813878939424</v>
+        <v>33.25813878937071</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>38.98616642026808</v>
+        <v>38.98616642026717</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.66241202387823</v>
+        <v>31.66241202386924</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.29203602368283</v>
+        <v>39.29203602367374</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>8.586808417399304</v>
+        <v>8.586808417392483</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>41.95887219601024</v>
+        <v>41.95887219598432</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>50.44718229668842</v>
+        <v>50.44718229668523</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.11287914343449</v>
+        <v>20.1128791434495</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.79424744611219</v>
+        <v>34.79424744612322</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.51973172626628</v>
+        <v>40.51973172624798</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.19840857138433</v>
+        <v>33.19840857142412</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>40.82494121423428</v>
+        <v>40.82494121423758</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>45.06819750152089</v>
+        <v>45.06819750149509</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.48085438254156</v>
+        <v>47.48085438249245</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>55.27062743216856</v>
+        <v>55.27062743219221</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>59.56356486671097</v>
+        <v>59.5635648667187</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.86039142436606</v>
+        <v>28.86039142441347</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.92775415868982</v>
+        <v>48.92775415860887</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>56.43941701799167</v>
+        <v>56.43941701799064</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>14.24058495393216</v>
+        <v>14.24058495391056</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.61742730032039</v>
+        <v>47.61742730033347</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>56.10870990915168</v>
+        <v>56.1087099091411</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.76347974201041</v>
+        <v>25.76347974203178</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>40.44906459214427</v>
+        <v>40.44906459216531</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.1770627481344</v>
+        <v>46.17706274811564</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>38.85324990760795</v>
+        <v>38.85324990759511</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.48328536220105</v>
+        <v>46.48328536219275</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.27102888833678</v>
+        <v>12.27102888831609</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.64321027642722</v>
+        <v>45.64321027645359</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>54.13152856708393</v>
+        <v>54.13152856709643</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.79767341632634</v>
+        <v>23.79767341630929</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.47919655394434</v>
+        <v>38.47919655392251</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.20469279329983</v>
+        <v>44.20469279332689</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.8832627280069</v>
+        <v>36.88326272796314</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>44.50994405175503</v>
+        <v>44.50994405178766</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>48.75321282301785</v>
+        <v>48.75321282302263</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>51.16587174067467</v>
+        <v>51.16587174063726</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.9556539023249</v>
+        <v>58.95565390229205</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>63.24860238454789</v>
+        <v>63.24860238449582</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.54526116674344</v>
+        <v>32.54526116673525</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.61280675677903</v>
+        <v>52.61280675674254</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>60.12447217097667</v>
+        <v>60.12447217098724</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.92543848802597</v>
+        <v>17.92543848801358</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>51.30239845263088</v>
+        <v>51.30239845260552</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>59.7936892513054</v>
+        <v>59.79368925134178</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.44890714902078</v>
+        <v>29.44890714893017</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.13464684456016</v>
+        <v>44.1346468445489</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>49.86265695884492</v>
+        <v>49.86265695887447</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>42.53873721196293</v>
+        <v>42.53873721193008</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>50.16892135812258</v>
+        <v>50.16892135811701</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5.288753110473401</v>
+        <v>5.288753110410305</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>38.66047383344482</v>
+        <v>38.66047383342345</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.14888649925512</v>
+        <v>47.14888649928275</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.81452678305322</v>
+        <v>16.81452678304981</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.49570969867727</v>
+        <v>31.49570969864282</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>37.22132848535761</v>
+        <v>37.22132848535386</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.89966951702262</v>
+        <v>29.89966951704445</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.52608151510184</v>
+        <v>37.52608151507638</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>41.76946634431669</v>
+        <v>41.76946634426849</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.1817041760496</v>
+        <v>44.18170417602879</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.97139470815511</v>
+        <v>51.97139470816148</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.26442240534026</v>
+        <v>56.26442240529285</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.56149386460344</v>
+        <v>25.56149386462527</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.62863431988102</v>
+        <v>45.62863431989182</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>53.14044927396582</v>
+        <v>53.1404492739391</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>10.9416983312177</v>
+        <v>10.94169833123157</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>44.31819757692755</v>
+        <v>44.31819757699838</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>52.80958273673229</v>
+        <v>52.80958273674536</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.46429599342138</v>
+        <v>22.46429599339239</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.14969542602261</v>
+        <v>37.14969542600272</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.87782807390692</v>
+        <v>42.87782807394694</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.55367938667484</v>
+        <v>35.55367938667654</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.18359417420901</v>
+        <v>43.18359417420867</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>43.53747625304617</v>
+        <v>43.53747625306698</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>45.95095877089897</v>
+        <v>45.95095877086987</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>53.74319329337458</v>
+        <v>53.74319329339732</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>58.03750770051419</v>
+        <v>58.03750770058422</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.32853066201016</v>
+        <v>27.32853066196298</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>47.40138879379105</v>
+        <v>47.40138879374739</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>54.91522266406843</v>
+        <v>54.91522266407559</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>16.82903610378036</v>
+        <v>16.82903610381617</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>50.20656023063429</v>
+        <v>50.20656023063474</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>58.69805865900718</v>
+        <v>58.69805865903935</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.35417187157156</v>
+        <v>28.35417187152074</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43.04068038210607</v>
+        <v>43.04068038210334</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>48.76890104094866</v>
+        <v>48.76890104091762</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>41.44525334599972</v>
+        <v>41.44525334603133</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>49.07618431196328</v>
+        <v>49.07618431198011</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>53.32178192492221</v>
+        <v>53.32178192491789</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>55.73798024433471</v>
+        <v>55.73798024430925</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>63.5309499147529</v>
+        <v>63.53094991477962</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>67.82542874524916</v>
+        <v>67.82542874525768</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>37.11369141007412</v>
+        <v>37.11369141008651</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>57.18819266824561</v>
+        <v>57.1881926682015</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>64.70230810432417</v>
+        <v>64.70230810427813</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>50.72869082233637</v>
+        <v>50.72869082233068</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>53.14255816543049</v>
+        <v>53.14255816544891</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>60.93492558294644</v>
+        <v>60.9349255829403</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.2292349041287</v>
+        <v>65.22923490414348</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>34.51954958153578</v>
+        <v>34.51954958150395</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>54.59304977662622</v>
+        <v>54.59304977661758</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>62.10683635501777</v>
+        <v>62.10683635498321</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.01899371405647</v>
+        <v>24.01899371406</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>57.39721596996866</v>
+        <v>57.39721597000129</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>65.88871848980955</v>
+        <v>65.88871848981114</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.54539173135174</v>
+        <v>35.54539173137095</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.23242004081828</v>
+        <v>50.23242004075154</v>
       </c>
     </row>
     <row r="306">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.63690510321509</v>
+        <v>48.63690510326875</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>56.26824752956224</v>
+        <v>56.26824752954598</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>60.51381036755719</v>
+        <v>60.51381036752888</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.93039353754556</v>
+        <v>62.93039353752555</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.7234961037824</v>
+        <v>70.72349610376239</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>75.0179698495366</v>
+        <v>75.01796984955479</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.30552421226468</v>
+        <v>44.30552421228185</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>64.38066753840531</v>
+        <v>64.38066753840053</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>71.89473567627817</v>
+        <v>71.89473567625328</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>54.41433930056802</v>
+        <v>54.41433930059144</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.82820862491189</v>
+        <v>56.82820862489449</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.62058514725675</v>
+        <v>64.62058514723492</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>68.9149055130805</v>
+        <v>68.91490551308152</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.20505243251363</v>
+        <v>38.20505243249715</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>58.27873549271043</v>
+        <v>58.27873549272487</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>65.79252462646582</v>
+        <v>65.79252462645195</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.70431980681575</v>
+        <v>27.7043198067804</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>61.08265968487148</v>
+        <v>61.08265968495549</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>69.57417038431765</v>
+        <v>69.57417038431743</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.23129171893071</v>
+        <v>39.23129171893196</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>53.91847487735344</v>
+        <v>53.91847487736265</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>59.64667800432368</v>
+        <v>59.64667800432186</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>52.32286500006818</v>
+        <v>52.32286500010786</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>59.95435612044115</v>
+        <v>59.95435612043706</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>64.19993143570957</v>
+        <v>64.19993143573447</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.6165165794489</v>
+        <v>66.61651657941889</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>74.40962824996473</v>
+        <v>74.40962824993608</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>78.70411303808419</v>
+        <v>78.70411303805827</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>47.99149963276295</v>
+        <v>47.99149963272907</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>68.06682582480357</v>
+        <v>68.06682582480244</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>75.58089651074897</v>
+        <v>75.58089651071782</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>47.42912816235741</v>
+        <v>47.42912816235695</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.84257641275791</v>
+        <v>49.84257641276542</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>57.6348612937694</v>
+        <v>57.63486129379145</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>61.92926088749436</v>
+        <v>61.92926088746912</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.21982052153418</v>
+        <v>31.21982052152418</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>51.29309839079985</v>
+        <v>51.29309839082986</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>58.80703705371547</v>
+        <v>58.80703705370455</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.72022120998485</v>
+        <v>20.72022121001395</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>54.09810037430224</v>
+        <v>54.09810037437455</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>62.58970544108956</v>
+        <v>62.5897054411273</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.24632205461466</v>
+        <v>32.24632205463137</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.93316495843305</v>
+        <v>46.93316495844271</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>52.66149062371959</v>
+        <v>52.66149062374688</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>45.3374486656022</v>
+        <v>45.33744866557628</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>52.96867043615475</v>
+        <v>52.96867043617998</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>57.21436180051716</v>
+        <v>57.21436180052239</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>59.63052585245952</v>
+        <v>59.63052585246316</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.42354588557123</v>
+        <v>67.42354588555759</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>71.7181098979944</v>
+        <v>71.71810989799076</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.00590919117382</v>
+        <v>41.00590919115802</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.08083020457922</v>
+        <v>61.0808302045408</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>68.59505042166575</v>
+        <v>68.59505042165904</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-15.8334097283788</v>
+        <v>-15.83340972839051</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.53756485878909</v>
+        <v>17.53756485881365</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.02669393302664</v>
+        <v>26.02669393304733</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-4.308475723177146</v>
+        <v>-4.308475723196246</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.37123396853178</v>
+        <v>10.3712339685054</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.09743921739743</v>
+        <v>16.09743921740289</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.775617166943896</v>
+        <v>8.775617166919339</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.40048840353165</v>
+        <v>16.400488403567</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.64435874323498</v>
+        <v>20.64435874314301</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.05708496428041</v>
+        <v>23.05708496427427</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.84656050781688</v>
+        <v>30.84656050784962</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.13994665154234</v>
+        <v>35.13994665154211</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>4.438356463367647</v>
+        <v>4.438356463368443</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.50414273787487</v>
+        <v>24.50414273796695</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.01662825892299</v>
+        <v>32.01662825893879</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-10.18269862079502</v>
+        <v>-10.18269862075409</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.1930545375518</v>
+        <v>23.19305453758817</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.68515636954816</v>
+        <v>31.68515636955907</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>1.339059254774604</v>
+        <v>1.339059254792907</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.02298552614399</v>
+        <v>16.02298552615809</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.75170488050127</v>
+        <v>21.7517048805522</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>14.42739267877015</v>
+        <v>14.42739267875924</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.0557667591446</v>
+        <v>22.05576675910458</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-8.645529603432358</v>
+        <v>-8.645529603397684</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.72614303981913</v>
+        <v>24.72614303984823</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.21527619605853</v>
+        <v>33.21527619607297</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.880666452936445</v>
+        <v>2.880666453024666</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>17.56089587350174</v>
+        <v>17.56089587356723</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>23.2870716292997</v>
+        <v>23.28707162933608</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.96519112562952</v>
+        <v>15.96519112564396</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.59047376138607</v>
+        <v>23.59047376137152</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.8343093160131</v>
+        <v>27.83430931604777</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.24742040817488</v>
+        <v>30.24742040817318</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.03702882988238</v>
+        <v>38.03702882990057</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.33040989452979</v>
+        <v>42.33040989453604</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>11.62811145492741</v>
+        <v>11.62811145491764</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.69453971228506</v>
+        <v>31.69453971222378</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>39.20697792605244</v>
+        <v>39.20697792599571</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-2.993149176537834</v>
+        <v>-2.993149176570576</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>30.38330211640311</v>
+        <v>30.38330211639526</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.87540806443632</v>
+        <v>38.87540806444758</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>8.529870899897553</v>
+        <v>8.529870899836844</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>23.2143169701402</v>
+        <v>23.21431697013701</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.94300685778341</v>
+        <v>28.94300685772929</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.61863621616066</v>
+        <v>21.61863621616225</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.24742175488836</v>
+        <v>29.24742175487346</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.961030847803734</v>
+        <v>-4.961030847752689</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.41075941315921</v>
+        <v>28.41075941323924</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.89990076296714</v>
+        <v>36.89990076300159</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>6.565739030289585</v>
+        <v>6.565739030324828</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.24612329562375</v>
+        <v>21.24612329565024</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.97231101315082</v>
+        <v>26.97231101320096</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.65032360060069</v>
+        <v>19.65032360057159</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.27575492638322</v>
+        <v>27.27575492637003</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>31.51960296703759</v>
+        <v>31.51960296705169</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.93271608525185</v>
+        <v>33.93271608525355</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.72233361968301</v>
+        <v>41.72233361970984</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.01572573487089</v>
+        <v>46.01572573492398</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.3132595052657</v>
+        <v>15.31325950528093</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>35.37987062929698</v>
+        <v>35.3798706293187</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.89231140103322</v>
+        <v>42.89231140104584</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>0.691982680823223</v>
+        <v>0.6919826808616492</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.06855160053976</v>
+        <v>34.06855160055556</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>42.56066574180362</v>
+        <v>42.56066574181022</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>12.21557664984436</v>
+        <v>12.21557664986823</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.90017757584632</v>
+        <v>26.90017757581733</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.62887942401596</v>
+        <v>32.62887942400061</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.30440187737496</v>
+        <v>25.3044018774384</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.93333611691275</v>
+        <v>32.93333611697425</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-11.94369536228681</v>
+        <v>-11.94369536220734</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.42763422215409</v>
+        <v>21.42763422215989</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.91686994328756</v>
+        <v>29.91686994332235</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-0.4177963908886184</v>
+        <v>-0.4177963908813425</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.26224764650816</v>
+        <v>14.26224764654773</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>19.9885579103311</v>
+        <v>19.98855791037612</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>12.66634158456679</v>
+        <v>12.66634158452938</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.29150358067317</v>
+        <v>20.29150358069045</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.53546767899581</v>
+        <v>24.53546767901411</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.94815970050092</v>
+        <v>26.94815970049284</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.73768560258804</v>
+        <v>34.73768560259804</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.03115693508982</v>
+        <v>39.03115693509971</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>8.329103398943282</v>
+        <v>8.329103398952149</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.39530937824599</v>
+        <v>28.39530937819176</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>35.90789969019453</v>
+        <v>35.90789969016259</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-6.292146285425595</v>
+        <v>-6.292146285423662</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.08396190413827</v>
+        <v>27.083961904102</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.57617040273782</v>
+        <v>35.57617040276693</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>5.230576633909429</v>
+        <v>5.230576633922389</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>19.91483729082096</v>
+        <v>19.91483729083358</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.64366167181435</v>
+        <v>25.64366167180378</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.31895517460929</v>
+        <v>18.31895517459463</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.94762005170843</v>
+        <v>25.94762005175937</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.3017864742062</v>
+        <v>26.30178647422439</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.7157231283246</v>
+        <v>28.7157231283138</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.50779311824544</v>
+        <v>36.50779311826272</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>40.80255124350435</v>
+        <v>40.80255124355971</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.09444879155944</v>
+        <v>10.09444879154386</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.16637260296567</v>
+        <v>30.16637260293918</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>37.68098203796273</v>
+        <v>37.68098203795909</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-0.4034766280319744</v>
+        <v>-0.4034766280231068</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.97365653692747</v>
+        <v>32.97365653688279</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>41.46597829322081</v>
+        <v>41.46597829314828</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>11.12178467783644</v>
+        <v>11.12178467778244</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.80715449671776</v>
+        <v>25.80715449675642</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.53606686880607</v>
+        <v>31.53606686891646</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.21186137170582</v>
+        <v>24.2118613717381</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.84154250117376</v>
+        <v>31.84154250113374</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.08771958761269</v>
+        <v>36.08771958756085</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.50437216377315</v>
+        <v>38.5043721637329</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.29717736873749</v>
+        <v>46.29717736879467</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>50.59209991266049</v>
+        <v>50.59209991263764</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.88123700208097</v>
+        <v>19.88123700207256</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.95480402572081</v>
+        <v>39.95480402562531</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>47.46969502899685</v>
+        <v>47.46969502902777</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>33.49340670711558</v>
+        <v>33.49340670710614</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.90772818423647</v>
+        <v>35.90772818423294</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.6999310714425</v>
+        <v>43.69993107144023</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.99468411560428</v>
+        <v>47.99468411558689</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.28587335957126</v>
+        <v>17.2858733595458</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.35843924708251</v>
+        <v>37.35843924704238</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.87300139793796</v>
+        <v>44.87300139793785</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>6.786886608502861</v>
+        <v>6.786886608479897</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.16471791858316</v>
+        <v>40.16471791855712</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.65704377733743</v>
+        <v>48.65704377733277</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>18.31341021975992</v>
+        <v>18.31341021977152</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.99929984510879</v>
+        <v>32.99929984514483</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>38.72818274240785</v>
+        <v>38.72818274235294</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.40391883001563</v>
+        <v>31.40391883006998</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.03401142405027</v>
+        <v>39.03401142397342</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.28015374173935</v>
+        <v>43.28015374170797</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.69719116639157</v>
+        <v>45.69719116634769</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>53.49012927008663</v>
+        <v>53.49012927011517</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.78504673388363</v>
+        <v>57.78504673384895</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.07347550126371</v>
+        <v>27.07347550132874</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>47.14768460548679</v>
+        <v>47.14768460549271</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>54.66252831815597</v>
+        <v>54.66252831819553</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>37.1793335535633</v>
+        <v>37.17933355359298</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.59365700115404</v>
+        <v>39.5936570011878</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.38586899465007</v>
+        <v>47.38586899468691</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>51.68063308560112</v>
+        <v>51.68063308561238</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>20.97165455773699</v>
+        <v>20.97165455771027</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.0444033209676</v>
+        <v>41.04440332102205</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>48.55896803007646</v>
+        <v>48.55896803011284</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>10.4724910366001</v>
+        <v>10.47249103663648</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>43.85043997750369</v>
+        <v>43.85043997753825</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>52.34277401925475</v>
+        <v>52.3427740192402</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.99958856264913</v>
+        <v>21.99958856267551</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.68563304711426</v>
+        <v>36.68563304706685</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.41452789791173</v>
+        <v>42.4145278979098</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.09015709637969</v>
+        <v>35.09015709640766</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.72039839370267</v>
+        <v>42.72039839372564</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>46.9665531905116</v>
+        <v>46.96655319054729</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>49.38359257827027</v>
+        <v>49.38359257822196</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>57.17653978699979</v>
+        <v>57.17653978700604</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.47146829572932</v>
+        <v>61.47146829568361</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.75972928103715</v>
+        <v>30.75972928103464</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>50.83412126214898</v>
+        <v>50.83412126221139</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>58.34896752561962</v>
+        <v>58.34896752571068</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>30.19373353359503</v>
+        <v>30.1937335336197</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.60763589658631</v>
+        <v>32.6076358965721</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.39975624581074</v>
+        <v>40.39975624578198</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>44.69459956715331</v>
+        <v>44.69459956717082</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>13.9860337704764</v>
+        <v>13.98603377047277</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.05837733295356</v>
+        <v>34.05837733293162</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>41.57309157171823</v>
+        <v>41.57309157167992</v>
       </c>
     </row>
     <row r="525">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.86549182200621</v>
+        <v>36.86549182203895</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>45.35792022755128</v>
+        <v>45.35792022753309</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>15.01423001367277</v>
+        <v>15.01423001364719</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.69993423754533</v>
+        <v>29.69993423755079</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>35.42895162558715</v>
+        <v>35.42895162557453</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.10435185992048</v>
+        <v>28.10435185992264</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.73432380363578</v>
+        <v>35.73432380369353</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>39.98059464920413</v>
+        <v>39.98059464921743</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.39721293452191</v>
+        <v>42.39721293450645</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>50.19006850277128</v>
+        <v>50.19006850277628</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>54.48507623842931</v>
+        <v>54.48507623843613</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.77374993892226</v>
+        <v>23.77374993892362</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.84773673132019</v>
+        <v>43.84773673130177</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>51.36273252648322</v>
+        <v>51.36273252652392</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-15.75990843009289</v>
+        <v>-15.75990843003138</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>17.6093682749356</v>
+        <v>17.60936827492059</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.09801225022851</v>
+        <v>26.09801225028604</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-4.235792431148532</v>
+        <v>-4.235792431183661</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.44322466461892</v>
+        <v>10.4432246645216</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.1690988955147</v>
+        <v>16.16909889549446</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.847715380359425</v>
+        <v>8.847715380355787</v>
       </c>
     </row>
     <row r="547">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>20.71588757725134</v>
+        <v>20.715887577305</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.12848114585403</v>
+        <v>23.12848114588939</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.91756870245398</v>
+        <v>30.91756870246399</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>35.21069216467867</v>
+        <v>35.21069216459329</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>4.510606726537382</v>
+        <v>4.510606726486337</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.57541531027527</v>
+        <v>24.57541531025969</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>32.08745635751483</v>
+        <v>32.08745635748459</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-10.10789141905219</v>
+        <v>-10.10789141905719</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.26616364759445</v>
+        <v>23.26616364759035</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.75778021833764</v>
+        <v>31.75778021830705</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.413048703125916</v>
+        <v>1.413048703056795</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>16.09628219000967</v>
+        <v>16.09628219005332</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.82467039335676</v>
+        <v>21.82467039337859</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.50079690880181</v>
+        <v>14.5007969087951</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.12884792522879</v>
+        <v>22.12884792529371</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-8.572448598418426</v>
+        <v>-8.572448598423314</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.79752612547201</v>
+        <v>24.79752612547588</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>33.2861741828085</v>
+        <v>33.28617418279213</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>2.952929380900393</v>
+        <v>2.952929380865264</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>17.63246617813672</v>
+        <v>17.63246617809408</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.35831091818931</v>
+        <v>23.35831091809381</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.03686895076441</v>
+        <v>16.03686895079158</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.66182865738437</v>
+        <v>23.66182865733344</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.90541774324867</v>
+        <v>27.90541774323787</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.31839616458932</v>
+        <v>30.3183961645966</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.10761659150716</v>
+        <v>38.10761659154206</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>42.40073497572097</v>
+        <v>42.40073497577338</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.6999413223707</v>
+        <v>11.69994132242584</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.76539185550177</v>
+        <v>31.76539185550973</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>39.27738559840872</v>
+        <v>39.27738559843748</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-2.918762340600786</v>
+        <v>-2.918762340581004</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.45599082334331</v>
+        <v>30.45599082332307</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>38.94761150970975</v>
+        <v>38.94761150970577</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>8.603439910875288</v>
+        <v>8.603439910844592</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.28719316980277</v>
+        <v>23.28719316970079</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.01555190828844</v>
+        <v>29.01555190826195</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.6916199854138</v>
+        <v>21.69161998535377</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.32008243876475</v>
+        <v>29.32008243871382</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-4.888166414465225</v>
+        <v>-4.888166414421796</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.48192592062366</v>
+        <v>28.48192592070369</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.97058217124742</v>
+        <v>36.97058217119444</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>6.637785356477927</v>
+        <v>6.637785356517149</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.3174769902738</v>
+        <v>21.31747699026982</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.04333369222388</v>
+        <v>27.04333369215339</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.72178481961691</v>
+        <v>19.72178481952687</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.34689320823178</v>
+        <v>27.3468932082062</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.59049477960718</v>
+        <v>31.59049477963435</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.00347522706237</v>
+        <v>34.0034752271515</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>41.79270476661986</v>
+        <v>41.79270476658075</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>46.08583420051877</v>
+        <v>46.08583420049967</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.3848727676742</v>
+        <v>15.38487276764294</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>35.45050615702848</v>
+        <v>35.45050615703735</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.96250245798102</v>
+        <v>42.96250245800433</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>0.7661529072893174</v>
+        <v>0.7661529072870437</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>34.14102369186434</v>
+        <v>34.14102369190277</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>42.63265257106183</v>
+        <v>42.63265257104376</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.28892902159543</v>
+        <v>12.28892902160373</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.97283712781176</v>
+        <v>26.97283712776811</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.70120782697028</v>
+        <v>32.70120782691742</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.37716900275506</v>
+        <v>25.37716900279087</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.00578014866175</v>
+        <v>33.00578014861809</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-11.8704492614362</v>
+        <v>-11.87044926149338</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.49918242118485</v>
+        <v>21.49918242111413</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.98793303819593</v>
+        <v>29.98793303812044</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-0.3453683470760396</v>
+        <v>-0.3453683471050297</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>14.3339830762095</v>
+        <v>14.33398307621109</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.05996231757307</v>
+        <v>20.05996231759956</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>12.73818454373701</v>
+        <v>12.7381845437369</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.36302361698232</v>
+        <v>20.36302361693048</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.60674123946705</v>
+        <v>24.60674123945943</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.01930061332575</v>
+        <v>27.01930061330676</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.80843852522354</v>
+        <v>34.80843852521911</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>39.10164717178258</v>
+        <v>39.10164717180646</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>8.401098411151786</v>
+        <v>8.401098411118021</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.46632667641904</v>
+        <v>28.46632667635867</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.97847250981317</v>
+        <v>35.97847250980362</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-6.217594324514387</v>
+        <v>-6.21759432456475</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.15681575394273</v>
+        <v>27.15681575398298</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.64853898611954</v>
+        <v>35.64853898609771</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>5.304310790303809</v>
+        <v>5.304310790254696</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>19.98787864464474</v>
+        <v>19.98787864460518</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.71637186975385</v>
+        <v>25.71637186970747</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>18.39210410720204</v>
+        <v>18.39210410720556</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.02044590491914</v>
+        <v>26.02044590485365</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.37462105588474</v>
+        <v>26.37462105590247</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.78842497802361</v>
+        <v>28.78842497800064</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.58010685303156</v>
+        <v>36.58010685303292</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.87460222556046</v>
+        <v>40.87460222545609</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>10.16800483717633</v>
+        <v>10.1680048370988</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>30.23895067129796</v>
+        <v>30.23895067130842</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.75311552347124</v>
+        <v>37.75311552339894</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-0.3292830031217662</v>
+        <v>-0.3292830030825442</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.04615199779925</v>
+        <v>33.04615199779106</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.53798847453412</v>
+        <v>41.53798847455402</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>11.19516032960268</v>
+        <v>11.19516032961632</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.87983729010943</v>
+        <v>25.87983729015036</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.60841849989696</v>
+        <v>31.60841849994744</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.28465171418019</v>
+        <v>24.28465171416189</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.91400971319148</v>
+        <v>31.91400971317227</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.15994020733614</v>
+        <v>36.15994020740504</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.57645989930256</v>
+        <v>38.57645989920058</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>46.36887694280187</v>
+        <v>46.36887694276356</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>50.66353672518346</v>
+        <v>50.66353672510251</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.95417903258225</v>
+        <v>19.95417903256349</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.0267679948231</v>
+        <v>40.02676799487073</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.54121439860159</v>
+        <v>47.5412143985618</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.56582080918019</v>
+        <v>33.56582080929297</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.98000953502366</v>
+        <v>35.98000953497193</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.77182430016375</v>
+        <v>43.77182430015227</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.06631459208028</v>
+        <v>48.06631459208892</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.35900893742689</v>
+        <v>17.35900893734185</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.43059681415445</v>
+        <v>37.43059681412546</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>44.94471438490768</v>
+        <v>44.94471438486391</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>6.86065982560023</v>
+        <v>6.860659825575901</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.23679293466568</v>
+        <v>40.23679293463942</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>48.72863351388286</v>
+        <v>48.72863351382249</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.38636539265723</v>
+        <v>18.3863653926063</v>
       </c>
     </row>
     <row r="665">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.80011386954595</v>
+        <v>38.80011386949229</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.47628866991089</v>
+        <v>31.4762886698669</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.10605811186621</v>
+        <v>39.10605811184757</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>43.35195383990037</v>
+        <v>43.3519538398998</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>45.76885836162557</v>
+        <v>45.76885836157737</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.56140829616981</v>
+        <v>53.56140829614116</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>57.85606299926803</v>
+        <v>57.85606299923256</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.14599702156556</v>
+        <v>27.14599702152349</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>47.21922803104655</v>
+        <v>47.21922803097515</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>54.73362714708684</v>
+        <v>54.73362714704637</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>37.25153100316992</v>
+        <v>37.25153100322415</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.66572170039023</v>
+        <v>39.66572170034271</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.45754557071449</v>
+        <v>47.45754557069176</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>51.75204690897828</v>
+        <v>51.75204690897805</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.04457349201629</v>
+        <v>21.04457349200526</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.11634423427437</v>
+        <v>41.11634423422003</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.63046436345996</v>
+        <v>48.63046436337958</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>10.5460476218684</v>
+        <v>10.54604762182827</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.92229835533066</v>
+        <v>43.92229835528666</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>52.4141471172677</v>
+        <v>52.41414711724632</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.07232707396644</v>
+        <v>22.07232707394268</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.75767866423177</v>
+        <v>36.75767866424814</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.48624235474949</v>
+        <v>42.48624235473095</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.16231027025389</v>
+        <v>35.16231027025196</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.7922284075239</v>
+        <v>42.79222840749775</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.0381366146679</v>
+        <v>47.03813661464982</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>49.45504309905572</v>
+        <v>49.45504309908005</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>57.24760213794831</v>
+        <v>57.24760213791182</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>61.54226788527091</v>
+        <v>61.54226788525261</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.83203413613727</v>
+        <v>30.83203413607622</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>50.9054480117586</v>
+        <v>50.90544801173018</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>58.41984967902726</v>
+        <v>58.41984967896507</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.26631279840637</v>
+        <v>30.26631279833554</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.68008243387305</v>
+        <v>32.68008243389317</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.47181466519009</v>
+        <v>40.47181466525955</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.76639522900984</v>
+        <v>44.76639522910852</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>14.05933452149224</v>
+        <v>14.05933452153806</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.13070008395822</v>
+        <v>34.13070008393287</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>41.64496973490952</v>
+        <v>41.64496973497682</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>3.561941945407163</v>
+        <v>3.561941945427513</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.93773197753421</v>
+        <v>36.93773197758525</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>45.42967509854702</v>
+        <v>45.42967509863796</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>15.08735032830452</v>
+        <v>15.0873503283409</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.77236167549403</v>
+        <v>29.77236167545583</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.50104789638328</v>
+        <v>35.50104789635053</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.17688686030078</v>
+        <v>28.17688686023438</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>35.80653565767613</v>
+        <v>35.8065356576161</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>40.05255990713624</v>
+        <v>40.05255990709167</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.46904531288771</v>
+        <v>42.46904531287486</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50.26151271632784</v>
+        <v>50.26151271632511</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>54.55625768574838</v>
+        <v>54.55625768576578</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.84643662939026</v>
+        <v>23.84643662934376</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>43.91944533796993</v>
+        <v>43.91944533799255</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>51.43399652879111</v>
+        <v>51.43399652883181</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-10.56686202040078</v>
+        <v>-10.56686202038896</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.80497498908971</v>
+        <v>22.80497498906083</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.29385759699675</v>
+        <v>31.29385759699516</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>0.957743597492815</v>
+        <v>0.9577435975240789</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.63827409165582</v>
+        <v>15.63827409164843</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.3642168455882</v>
+        <v>21.36421684559547</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>14.04260736490982</v>
+        <v>14.04260736494972</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.66820282806759</v>
+        <v>21.66820282812386</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.91183218882986</v>
+        <v>25.91183218890421</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.3244231168295</v>
+        <v>28.32442311682825</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.11420619937063</v>
+        <v>36.11420619937393</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.40738187109149</v>
+        <v>40.40738187112492</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.704832716078606</v>
+        <v>9.704832716108392</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.77149037040487</v>
+        <v>29.77149037040657</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.28371605792244</v>
+        <v>37.2837160579005</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-4.915854917032341</v>
+        <v>-4.915854916965721</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.46076072361597</v>
+        <v>28.46076072364962</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.95261600259652</v>
+        <v>36.95261600259004</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>6.605574541658136</v>
+        <v>6.605574541641538</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.29032162539158</v>
+        <v>21.29032162540147</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.01877841418865</v>
+        <v>27.01877841414215</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.69467898044467</v>
+        <v>19.69467898051027</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.32377728364235</v>
+        <v>27.32377728371136</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-3.379054224745921</v>
+        <v>-3.379054224754107</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.99348085217127</v>
+        <v>29.99348085219037</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>38.48236753487799</v>
+        <v>38.48236753485389</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>8.146813442799605</v>
+        <v>8.146813442798695</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.82786367735513</v>
+        <v>22.82786367734604</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.55377693236357</v>
+        <v>28.5537769323954</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.23210899284015</v>
+        <v>21.2321089927766</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.85811586528018</v>
+        <v>28.85811586529837</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.10171043659783</v>
+        <v>33.10171043657407</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.51468624534277</v>
+        <v>35.51468624536528</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.30460220839904</v>
+        <v>43.30460220844531</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>47.59777279816102</v>
+        <v>47.59777279815545</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>16.89451538601576</v>
+        <v>16.89451538596472</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.96181503528577</v>
+        <v>36.96181503524576</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.47399340983508</v>
+        <v>44.47399340983338</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>2.273622206964198</v>
+        <v>2.273622206924408</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.6509359936881</v>
+        <v>35.65093599364126</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>44.14279538138646</v>
+        <v>44.14279538130574</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>13.79631386459663</v>
+        <v>13.79631386453081</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.48158075900277</v>
+        <v>28.4815807590013</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.21000807548011</v>
+        <v>34.2100080754692</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.88585019577692</v>
+        <v>26.88585019576157</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.51535996787901</v>
+        <v>34.5153599678972</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.3053840809156938</v>
+        <v>0.3053840808729475</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.67803677405686</v>
+        <v>33.67803677405822</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>42.16693164953403</v>
+        <v>42.16693164949844</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.83182557454108</v>
+        <v>11.83182557450152</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.51303065242291</v>
+        <v>26.5130306524112</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.2389558696999</v>
+        <v>32.23895586970479</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.91718101609194</v>
+        <v>24.91718101608989</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.54333657802226</v>
+        <v>32.54333657799997</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.78694363560816</v>
+        <v>36.78694363556951</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>39.19992147568075</v>
+        <v>39.19992147568586</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.98984655143897</v>
+        <v>46.98984655151639</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.28302819054851</v>
+        <v>51.28302819059831</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.5796029916803</v>
+        <v>20.57960299165278</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.64708550702255</v>
+        <v>40.64708550702039</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>48.15926643880527</v>
+        <v>48.15926643881675</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>5.958693611693086</v>
+        <v>5.958693611605661</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.33612502379616</v>
+        <v>39.33612502377877</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>47.82799260381011</v>
+        <v>47.82799260381443</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>17.48195916640076</v>
+        <v>17.48195916632221</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.16738091519129</v>
+        <v>32.16738091512138</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.89582019220028</v>
+        <v>37.89582019220324</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.57155540315227</v>
+        <v>30.5715554030977</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.20121387443464</v>
+        <v>38.20121387445453</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-6.677254001167064</v>
+        <v>-6.677254001167519</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.69493800467739</v>
+        <v>26.69493800468671</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.1839272588636</v>
+        <v>35.18392725887099</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>4.848316590317715</v>
+        <v>4.848316590281108</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.52918143017848</v>
+        <v>19.52918143016392</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.25522919959098</v>
+        <v>25.25522919962668</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.93322543466729</v>
+        <v>17.93322543459919</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.55911165745828</v>
+        <v>25.55911165745282</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.80283477800116</v>
+        <v>29.80283477802652</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.21539151934154</v>
+        <v>32.21539151931585</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>40.00522496066105</v>
+        <v>40.00522496061705</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.2984858185199</v>
+        <v>44.29848581856412</v>
       </c>
     </row>
     <row r="801">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.6625506765232</v>
+        <v>33.66255067653594</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>41.17488115411981</v>
+        <v>41.17488115413436</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1.025408929618273</v>
+        <v>-1.025408929629073</v>
       </c>
     </row>
     <row r="805">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>40.84352368640747</v>
+        <v>40.84352368637416</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>10.49698558066745</v>
+        <v>10.49698558064255</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.18206705000761</v>
+        <v>25.18206705003296</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.91062886602059</v>
+        <v>30.91062886604788</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.58613512712849</v>
+        <v>23.58613512699605</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.21552422711704</v>
+        <v>31.21552422709794</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.56955595881799</v>
+        <v>31.56955595889053</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.98335744243854</v>
+        <v>33.98335744249493</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.77573495867784</v>
+        <v>41.77573495867511</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.07028260235312</v>
+        <v>46.07028260236222</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.36122131985473</v>
+        <v>15.36122131983779</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>35.43401652205807</v>
+        <v>35.43401652204943</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.9483660762404</v>
+        <v>42.94836607621777</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>4.863040572813695</v>
+        <v>4.863040572838365</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.2410362191581</v>
+        <v>38.24103621915253</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>46.73311144192495</v>
+        <v>46.73311144189471</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.38797340752478</v>
+        <v>16.38797340752068</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.07416405815535</v>
+        <v>31.07416405817286</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.80281388583034</v>
+        <v>36.80281388572779</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.47882112814647</v>
+        <v>29.47882112811805</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.1092265029714</v>
+        <v>37.10922650293093</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>41.35516256885307</v>
+        <v>41.35516256879168</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>43.77167995549268</v>
+        <v>43.77167995548256</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.56479267404585</v>
+        <v>51.56479267405881</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>55.85950476097604</v>
+        <v>55.85950476098525</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.14768298861474</v>
+        <v>25.14768298857586</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.22212143577405</v>
+        <v>45.22212143578871</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>52.73675256928777</v>
+        <v>52.73675256932835</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>38.76110387544178</v>
+        <v>38.76110387548078</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.17529019150208</v>
+        <v>41.17529019149219</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>48.96780060786045</v>
+        <v>48.9678006079232</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>53.26234316686838</v>
+        <v>53.26234316690647</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.55257357536038</v>
+        <v>22.55257357529921</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>42.62601086592291</v>
+        <v>42.62601086587915</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>50.14031312996382</v>
+        <v>50.14031312999463</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>12.05333148221279</v>
+        <v>12.05333148222109</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.4320252856545</v>
+        <v>45.43202528562539</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>53.92410460377675</v>
+        <v>53.924104603773</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>23.57952662094953</v>
+        <v>23.57952662087097</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.26623708933652</v>
+        <v>38.26623708925523</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.99485743677518</v>
+        <v>43.9948574367172</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.67080625835376</v>
+        <v>36.67080625832056</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.30162310766774</v>
+        <v>44.30162310764</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>48.54752440041124</v>
+        <v>48.54752440045262</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.96442664526318</v>
+        <v>50.96442664524113</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.75767226485606</v>
+        <v>58.75767226484754</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.05237926834638</v>
+        <v>63.05237926834968</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.3398491680889</v>
+        <v>32.33984916806389</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>52.41492970818614</v>
+        <v>52.41492970826754</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>59.92951354519175</v>
+        <v>59.92951354511944</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>42.44697026679147</v>
+        <v>42.44697026681114</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.86115855968205</v>
+        <v>44.86115855966636</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.65367808139614</v>
+        <v>52.65367808143514</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>56.94823168636469</v>
+        <v>56.94823168643642</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.23829432629224</v>
+        <v>26.23829432621266</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.31191449163384</v>
+        <v>46.31191449163997</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>53.82621931320147</v>
+        <v>53.82621931326582</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.73887546284436</v>
+        <v>15.7388754628406</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.11768689554639</v>
+        <v>49.11768689550376</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>57.60977439578561</v>
+        <v>57.60977439582063</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.26564452068475</v>
+        <v>27.26564452060995</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.95250984647191</v>
+        <v>41.95250984646429</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>47.68114214746821</v>
+        <v>47.68114214749516</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>40.35698407536426</v>
+        <v>40.35698407533652</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.98794962679266</v>
+        <v>47.9879496268021</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>52.23386339904129</v>
+        <v>52.23386339904436</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>54.65076761242948</v>
+        <v>54.65076761247996</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>62.4440223366588</v>
+        <v>62.44402233666505</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>66.7387403842298</v>
+        <v>66.7387403842406</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.02604250562205</v>
+        <v>36.02604250559545</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.10130592136874</v>
+        <v>56.10130592138011</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>63.61589230868037</v>
+        <v>63.61589230871856</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>35.46139666972919</v>
+        <v>35.46139666983276</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.87516387571133</v>
+        <v>37.87516387573964</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>45.6675917516178</v>
+        <v>45.66759175169692</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>49.96222458889087</v>
+        <v>49.96222458899262</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>19.25269996245969</v>
+        <v>19.25269996247697</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.32591491660661</v>
+        <v>39.32591491662378</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>46.8403692734929</v>
+        <v>46.8403692735419</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>8.754414462514085</v>
+        <v>8.754414462506922</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.13276515930828</v>
+        <v>42.13276515930465</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>50.6249470307249</v>
+        <v>50.62494703076481</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.2803124065914</v>
+        <v>20.28031240649829</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.96683746184748</v>
+        <v>34.96683746183736</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>40.69559230599804</v>
+        <v>40.69559230602533</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.37120527111505</v>
+        <v>33.37120527108686</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.00190145946498</v>
+        <v>41.00190145943758</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>45.24793128584155</v>
+        <v>45.24793128583234</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.66441439453251</v>
+        <v>47.66441439452694</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>55.45757747704567</v>
+        <v>55.4575774770617</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.75237475309756</v>
+        <v>59.7523747531253</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.0400895918043</v>
+        <v>29.04008959174882</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.11494780886368</v>
+        <v>49.11494780890632</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>56.62968373336377</v>
+        <v>56.62968373336866</v>
       </c>
     </row>
   </sheetData>
